--- a/migforecasting/clustering/AN-method output (no mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (no mundist).xlsx
@@ -9,64 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="1" r:id="rId1"/>
+    <sheet name="Прогноз" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Анализ!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Анализ!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Анализ!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Анализ!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Анализ!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Анализ!$C$30:$R$30</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Анализ!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Анализ!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Анализ!$C$26:$R$26</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Анализ!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Анализ!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Анализ!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Анализ!$C$26:$R$26</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Анализ!$C$30:$R$30</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Анализ!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Анализ!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Анализ!$C$26:$R$26</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Анализ!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Анализ!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Анализ!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Анализ!$C$30:$R$30</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Анализ!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Анализ!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Анализ!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Анализ!$C$26:$R$26</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Анализ!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Анализ!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Анализ!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Анализ!$C$30:$R$30</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Анализ!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Анализ!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Анализ!$C$26:$R$26</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Анализ!$C$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Анализ!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Анализ!$C$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Анализ!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Анализ!$C$30:$R$30</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Анализ!$C$29:$R$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Анализ!$C$30:$R$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Анализ!$C$24:$R$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Анализ!$C$25:$R$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Анализ!$C$26:$R$26</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>clust</t>
   </si>
@@ -130,6 +87,24 @@
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>Процент превосходства соцэко индикатора в положительной части кластера по сравнению с отрицательной</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>neg+pos</t>
+  </si>
+  <si>
+    <t>pred saldo</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +149,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -240,6 +224,19 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,7 +1354,7 @@
             <c:numRef>
               <c:f>[1]Анализ!$D$25:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>-4.5743197755307441E-2</c:v>
@@ -1486,7 +1483,7 @@
             <c:numRef>
               <c:f>[1]Анализ!$D$26:$R$26</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3.0509624868235496E-2</c:v>
@@ -1615,7 +1612,7 @@
             <c:numRef>
               <c:f>[1]Анализ!$D$27:$R$27</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>-9.276436666696275E-2</c:v>
@@ -1744,7 +1741,7 @@
             <c:numRef>
               <c:f>[1]Анализ!$D$28:$R$28</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>-8.8491683697801138E-3</c:v>
@@ -1873,7 +1870,7 @@
             <c:numRef>
               <c:f>[1]Анализ!$D$29:$R$29</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>-1.0808853999729751E-3</c:v>
@@ -2002,7 +1999,7 @@
             <c:numRef>
               <c:f>[1]Анализ!$D$30:$R$30</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>-8.3641311857414191E-2</c:v>
@@ -2152,7 +2149,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3788,7 +3785,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4081,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,6 +4939,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H23" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>2</v>
@@ -5417,67 +5419,67 @@
         <v>20</v>
       </c>
       <c r="C31" s="9">
-        <f>AVERAGE(C25:C30)</f>
+        <f t="shared" ref="C31:I31" si="7">AVERAGE(C25:C30)</f>
         <v>0.1530882296273029</v>
       </c>
       <c r="D31" s="9">
-        <f>AVERAGE(D25:D30)</f>
+        <f t="shared" si="7"/>
         <v>-4.3158937537187657E-2</v>
       </c>
       <c r="E31" s="9">
-        <f>AVERAGE(E25:E30)</f>
+        <f t="shared" si="7"/>
         <v>4.3246496906242902E-2</v>
       </c>
       <c r="F31" s="9">
-        <f>AVERAGE(F25:F30)</f>
+        <f t="shared" si="7"/>
         <v>3.8713878631365585E-2</v>
       </c>
       <c r="G31" s="9">
-        <f>AVERAGE(G25:G30)</f>
+        <f t="shared" si="7"/>
         <v>0.17756314057400535</v>
       </c>
       <c r="H31" s="9">
-        <f>AVERAGE(H25:H30)</f>
+        <f t="shared" si="7"/>
         <v>0.22431998874260226</v>
       </c>
       <c r="I31" s="9">
-        <f>AVERAGE(I25:I30)</f>
+        <f t="shared" si="7"/>
         <v>2.0717030584713875E-2</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" ref="J31:R31" si="7">AVERAGE(J25:J30)</f>
+        <f t="shared" ref="J31:R31" si="8">AVERAGE(J25:J30)</f>
         <v>2.1836382204897253E-3</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2850431550950217E-3</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-7.1040558569823622E-2</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.4643133764610402E-2</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.06504684645584E-2</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7002235654687617E-2</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.851464442612241E-2</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.5058627549486278E-2</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.6035858668642083E-2</v>
       </c>
     </row>
@@ -6710,4 +6712,2782 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4">
+        <v>164807.99111111101</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.239321378776819</v>
+      </c>
+      <c r="E2" s="3">
+        <v>29018.855729342202</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.1510354114894401</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.7896575371105697E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>70.700341358427195</v>
+      </c>
+      <c r="I2" s="3">
+        <v>26.740573333333302</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.0003527914307299E-3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.5529138963616498E-3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2.5364955631528101E-3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>8.8732967316838898E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.21304175032453901</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2.7362961348447499</v>
+      </c>
+      <c r="P2" s="6">
+        <v>3.6724036200784001E-4</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5.7659091342652999E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>264.58127835258301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4">
+        <v>131645.14432989599</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.246119353999494</v>
+      </c>
+      <c r="E3" s="3">
+        <v>27897.187580030899</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2177236272124601</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.5632743956943498E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>66.670508836377095</v>
+      </c>
+      <c r="I3" s="3">
+        <v>26.084737113401999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.20289984411654E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.6263849299225498E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.2259364151279901E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.102195588506201</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.220122066507287</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2.7514922487599902</v>
+      </c>
+      <c r="P3" s="6">
+        <v>3.4140684121260098E-4</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>6.1164265955433401E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>265.87990616144202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>131645.14432989599</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.246119353999494</v>
+      </c>
+      <c r="E4" s="3">
+        <v>29018.855729342202</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.2177236272124601</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.7896575371105697E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>70.700341358427195</v>
+      </c>
+      <c r="I4" s="3">
+        <v>26.740573333333302</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.20289984411654E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.6263849299225498E-3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3.2259364151279901E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.102195588506201</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.220122066507287</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2.7514922487599902</v>
+      </c>
+      <c r="P4" s="6">
+        <v>3.6724036200784001E-4</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>6.1164265955433401E-2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>265.87990616144202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>72566.171521035605</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.189583292061173</v>
+      </c>
+      <c r="E7" s="3">
+        <v>23588.468394812298</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.78534973699159805</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.6962929605903001E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>36.985917288836298</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24.400728155339699</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.0809070905413599E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.74273251356547E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4.0126866040288501E-3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.16115439742513701</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.26232777031080001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2.9265367600548799</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1.8333715088117699E-4</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5.2500220873737603E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>160.88126020636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>73801.019762845797</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.209212442971625</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23772.118956875402</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.78195361276530495</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.4549296075286602E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>34.278988580233801</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24.7749644268774</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.1654613025601601E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.8679616426797098E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4.2579877024096803E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.16877386288204399</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.25906880817927902</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3.40365018026902</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.9956967010239599E-4</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5.5645145794321997E-2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>168.31403626084099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>73801.019762845797</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.209212442971625</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23772.118956875402</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.78534973699159805</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.6962929605903001E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>36.985917288836298</v>
+      </c>
+      <c r="I9" s="3">
+        <v>24.7749644268774</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.1654613025601601E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.8679616426797098E-3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4.2579877024096803E-3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.16877386288204399</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.26232777031080001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3.40365018026902</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1.9956967010239599E-4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>5.5645145794321997E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>168.31403626084099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4">
+        <v>68564.535353535306</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.18660119189643201</v>
+      </c>
+      <c r="E12" s="3">
+        <v>27344.810889393899</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.696620980986972</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.2582897619523999E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>35.027230891321203</v>
+      </c>
+      <c r="I12" s="3">
+        <v>26.9908787878787</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.8800419758275299E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.2827919550483101E-3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5.81489591983531E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.34613357156156899</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.70788762087819801</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9.6041584244655507</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2.7891952968457401E-4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5.2421230906235898E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>267.76056498903802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4">
+        <v>59076.652482269397</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.203789163958256</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25467.048701702101</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.72689230178861897</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.4085878336496599E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>28.1941841407913</v>
+      </c>
+      <c r="I13" s="3">
+        <v>26.5204822695035</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.9727956823579001E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3.8442672703875198E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.8133878270779501E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.295989957871853</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.62134179787733601</v>
+      </c>
+      <c r="O13" s="3">
+        <v>8.4609746898260401</v>
+      </c>
+      <c r="P13" s="6">
+        <v>2.6764459457439399E-4</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>5.4713383918701002E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>215.08277428894999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>59076.652482269397</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.203789163958256</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27344.810889393899</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.72689230178861897</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.4085878336496599E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>35.027230891321203</v>
+      </c>
+      <c r="I14" s="3">
+        <v>26.9908787878787</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.9727956823579001E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3.8442672703875198E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5.81489591983531E-3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.34613357156156899</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.70788762087819801</v>
+      </c>
+      <c r="O14" s="3">
+        <v>9.6041584244655507</v>
+      </c>
+      <c r="P14" s="6">
+        <v>2.7891952968457401E-4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5.4713383918701002E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>267.76056498903802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4">
+        <v>111014.81372549001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.32683220031052201</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41503.168199941101</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.815226802093581</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.24414268916191E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>54.825693016465202</v>
+      </c>
+      <c r="I17" s="3">
+        <v>23.593235294117601</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.2292113632206901E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.2357838718698501E-3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2.3894848550633798E-3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.125021890782716</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.22367674443591101</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2.86389544791649</v>
+      </c>
+      <c r="P17" s="6">
+        <v>2.6414080743661101E-4</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>6.0080075813557503E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <v>814.51301889204206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>88443.299578058999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.305918761473154</v>
+      </c>
+      <c r="E18" s="3">
+        <v>38241.899439367102</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.82108311154265501</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.84526948642621E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43.740974774376497</v>
+      </c>
+      <c r="I18" s="3">
+        <v>24.495864978902901</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.1840552471381999E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.0631903056150098E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2.76036340572282E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.17655458040053501</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.23098281618261399</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2.8729539348869002</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2.6245664983897299E-4</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>6.3919879791429296E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <v>814.86215366019201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>88443.299578058999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.32683220031052201</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41503.168199941101</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.82108311154265501</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.24414268916191E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>54.825693016465202</v>
+      </c>
+      <c r="I19" s="3">
+        <v>24.495864978902901</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.2292113632206901E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.2357838718698501E-3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2.76036340572282E-3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.17655458040053501</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.23098281618261399</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2.8729539348869002</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2.6414080743661101E-4</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>6.3919879791429296E-2</v>
+      </c>
+      <c r="R19" s="3">
+        <v>814.86215366019201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4">
+        <v>34346.433333333298</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.21496354724112501</v>
+      </c>
+      <c r="E22" s="3">
+        <v>26552.813493666599</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.86251438707031902</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.4400277185926401E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44.121309838155902</v>
+      </c>
+      <c r="I22" s="3">
+        <v>29.957666666666601</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.2810787544048899E-3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.7291930340570402E-3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.35377439196805E-2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.47448492008406401</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.40599525933667702</v>
+      </c>
+      <c r="O22" s="3">
+        <v>12.534415451913601</v>
+      </c>
+      <c r="P22" s="6">
+        <v>5.7502760830474499E-4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6.06464201617491E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>272.65362399689297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4">
+        <v>26444.322033898199</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.21952941930022701</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24460.203132033799</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.78617270372581005</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2.5920375933912901E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>36.6974660118399</v>
+      </c>
+      <c r="I23" s="3">
+        <v>29.721847457627099</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3.1768415513344001E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2.5529049066565501E-3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.56201208189133E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.38505660479326298</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.321434376034967</v>
+      </c>
+      <c r="O23" s="3">
+        <v>8.7696547847163107</v>
+      </c>
+      <c r="P23" s="6">
+        <v>5.8060175953319202E-4</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5.94341737712809E-2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>255.66572324290701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <v>26444.322033898199</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.21952941930022701</v>
+      </c>
+      <c r="E24" s="3">
+        <v>26552.813493666599</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.86251438707031902</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.5920375933912901E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44.121309838155902</v>
+      </c>
+      <c r="I24" s="3">
+        <v>29.957666666666601</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3.2810787544048899E-3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2.7291930340570402E-3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.56201208189133E-2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.47448492008406401</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.40599525933667702</v>
+      </c>
+      <c r="O24" s="3">
+        <v>12.534415451913601</v>
+      </c>
+      <c r="P24" s="6">
+        <v>5.8060175953319202E-4</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>6.06464201617491E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>272.65362399689297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4">
+        <v>31693.882352941098</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.15488522798111401</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21673.311809411702</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.79009004932782401</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3.17925233079384E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>40.805636315725103</v>
+      </c>
+      <c r="I27" s="3">
+        <v>30.596588235294099</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2.8423504392595298E-3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.3967383316014701E-3</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1.6617257829695101E-2</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.81707199487590298</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.75702905721362301</v>
+      </c>
+      <c r="O27" s="3">
+        <v>22.535907071104901</v>
+      </c>
+      <c r="P27" s="6">
+        <v>5.6204664330488903E-4</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>5.6296507891859797E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <v>86.674616944433694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4">
+        <v>32717.342857142801</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.17223464862844801</v>
+      </c>
+      <c r="E28" s="3">
+        <v>22060.863952571399</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.64007213047926503</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.6871552770673402E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>27.051620347179401</v>
+      </c>
+      <c r="I28" s="3">
+        <v>27.186285714285699</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2.4984980007264901E-3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2.1018633936642E-3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.49368977269919E-2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.950919980446152</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.70568554871173805</v>
+      </c>
+      <c r="O28" s="3">
+        <v>22.845238599246301</v>
+      </c>
+      <c r="P28" s="6">
+        <v>7.0640901064990096E-4</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>5.7151331170984601E-2</v>
+      </c>
+      <c r="R28" s="3">
+        <v>166.077274161171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4">
+        <v>32717.342857142801</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.17223464862844801</v>
+      </c>
+      <c r="E29" s="3">
+        <v>22060.863952571399</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.79009004932782401</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.17925233079384E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>40.805636315725103</v>
+      </c>
+      <c r="I29" s="3">
+        <v>30.596588235294099</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.8423504392595298E-3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2.3967383316014701E-3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.6617257829695101E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.950919980446152</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.75702905721362301</v>
+      </c>
+      <c r="O29" s="3">
+        <v>22.845238599246301</v>
+      </c>
+      <c r="P29" s="6">
+        <v>7.0640901064990096E-4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>5.7151331170984601E-2</v>
+      </c>
+      <c r="R29" s="3">
+        <v>166.077274161171</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E8">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I8">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J8">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K8">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L8">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M8">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N8">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O8">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:P8">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q8">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R8">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C13">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F13">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K13">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L13">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M13">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O13">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P13">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q13">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R13">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I18">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J18">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K18">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L18">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:M18">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N18">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:O18">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17:P18">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q18">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:R18">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F23">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G23">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I23">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J23">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K23">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L23">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:M23">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N23">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:O23">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:P23">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:Q23">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:R23">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G28">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I28">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J28">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K28">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L28">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M28">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N28">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O28">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P28">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q28">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R28">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/AN-method output (no mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (no mundist).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>clust</t>
   </si>
@@ -105,6 +105,9 @@
   <si>
     <t>pred saldo</t>
   </si>
+  <si>
+    <t>pred saldo + popsize</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -191,12 +194,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,7 +290,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2200,7 +2267,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6716,10 +6782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C27" sqref="C27:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,9 +6800,10 @@
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6788,14 +6855,17 @@
       <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="T1" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6850,8 +6920,11 @@
       <c r="R2" s="3">
         <v>264.58127835258301</v>
       </c>
+      <c r="S2" s="16">
+        <v>1.0000000000003581E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -6906,8 +6979,11 @@
       <c r="R3" s="3">
         <v>265.87990616144202</v>
       </c>
+      <c r="S3" s="16">
+        <v>-14.14</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -6962,11 +7038,18 @@
       <c r="R4" s="3">
         <v>265.87990616144202</v>
       </c>
+      <c r="S4" s="16">
+        <v>-12.670000000000011</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
+      <c r="S5" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -7021,8 +7104,11 @@
       <c r="R7" s="3">
         <v>160.88126020636</v>
       </c>
+      <c r="S7" s="16">
+        <v>-104.2700000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -7077,8 +7163,11 @@
       <c r="R8" s="3">
         <v>168.31403626084099</v>
       </c>
+      <c r="S8" s="16">
+        <v>-161.3300000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -7133,8 +7222,17 @@
       <c r="R9" s="3">
         <v>168.31403626084099</v>
       </c>
+      <c r="S9" s="16">
+        <v>-144.47</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -7189,8 +7287,11 @@
       <c r="R12" s="3">
         <v>267.76056498903802</v>
       </c>
+      <c r="S12" s="16">
+        <v>-137.96</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -7245,8 +7346,11 @@
       <c r="R13" s="3">
         <v>215.08277428894999</v>
       </c>
+      <c r="S13" s="16">
+        <v>-89.789999999999992</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -7301,8 +7405,17 @@
       <c r="R14" s="3">
         <v>267.76056498903802</v>
       </c>
+      <c r="S14" s="16">
+        <v>-123.01</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -7357,8 +7470,11 @@
       <c r="R17" s="3">
         <v>814.51301889204206</v>
       </c>
+      <c r="S17" s="16">
+        <v>-31.059999999999992</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -7413,8 +7529,11 @@
       <c r="R18" s="3">
         <v>814.86215366019201</v>
       </c>
+      <c r="S18" s="16">
+        <v>-114.01</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -7469,8 +7588,17 @@
       <c r="R19" s="3">
         <v>814.86215366019201</v>
       </c>
+      <c r="S19" s="16">
+        <v>-22.27999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -7525,8 +7653,11 @@
       <c r="R22" s="3">
         <v>272.65362399689297</v>
       </c>
+      <c r="S22" s="16">
+        <v>-108.99000000000009</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -7581,8 +7712,11 @@
       <c r="R23" s="3">
         <v>255.66572324290701</v>
       </c>
+      <c r="S23" s="16">
+        <v>-185.66</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -7637,8 +7771,17 @@
       <c r="R24" s="3">
         <v>272.65362399689297</v>
       </c>
+      <c r="S24" s="16">
+        <v>-133.52000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S26" s="17"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -7693,8 +7836,11 @@
       <c r="R27" s="3">
         <v>86.674616944433694</v>
       </c>
+      <c r="S27" s="16">
+        <v>-96.879999999999967</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -7749,8 +7895,11 @@
       <c r="R28" s="3">
         <v>166.077274161171</v>
       </c>
+      <c r="S28" s="16">
+        <v>-222.17999999999989</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -7804,10 +7953,85 @@
       </c>
       <c r="R29" s="3">
         <v>166.077274161171</v>
+      </c>
+      <c r="S29" s="18">
+        <v>-93.949999999999989</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -7819,7 +8043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -7831,7 +8055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -7843,7 +8067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -7855,7 +8079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
@@ -7867,7 +8091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
@@ -7879,7 +8103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -7891,7 +8115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -7903,7 +8127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
@@ -7915,7 +8139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
@@ -7927,79 +8151,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="226">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -8011,7 +8235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="E7:E8">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
@@ -8023,7 +8247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="F7:F8">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -8035,7 +8259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="G7:G8">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
@@ -8047,7 +8271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
+  <conditionalFormatting sqref="H7:H8">
     <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
@@ -8059,7 +8283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="I7:I8">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
@@ -8071,7 +8295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="J7:J8">
     <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
@@ -8083,7 +8307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E8">
+  <conditionalFormatting sqref="K7:K8">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
@@ -8095,7 +8319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F8">
+  <conditionalFormatting sqref="L7:L8">
     <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
@@ -8107,7 +8331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
+  <conditionalFormatting sqref="M7:M8">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
@@ -8119,7 +8343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
+  <conditionalFormatting sqref="N7:N8">
     <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
@@ -8131,7 +8355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I8">
+  <conditionalFormatting sqref="O7:O8">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
@@ -8143,7 +8367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J8">
+  <conditionalFormatting sqref="P7:P8">
     <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
@@ -8155,7 +8379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
+  <conditionalFormatting sqref="Q7:Q8">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
@@ -8167,7 +8391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L8">
+  <conditionalFormatting sqref="R7:R8">
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -8179,79 +8403,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N8">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P8">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q8">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R8">
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C13">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -8263,7 +8487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="F12:F13">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -8275,7 +8499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="G12:G13">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -8287,7 +8511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="H12:H13">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -8299,7 +8523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
+  <conditionalFormatting sqref="I12:I13">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -8311,7 +8535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="J12:J13">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -8323,7 +8547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
+  <conditionalFormatting sqref="K12:K13">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -8335,7 +8559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F13">
+  <conditionalFormatting sqref="L12:L13">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -8347,7 +8571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
+  <conditionalFormatting sqref="M12:M13">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -8359,7 +8583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
+  <conditionalFormatting sqref="N12:N13">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -8371,7 +8595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="O12:O13">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -8383,7 +8607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13">
+  <conditionalFormatting sqref="P12:P13">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -8395,7 +8619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13">
+  <conditionalFormatting sqref="Q12:Q13">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -8407,7 +8631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13">
+  <conditionalFormatting sqref="R12:R13">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -8419,79 +8643,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -8503,7 +8727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="P14">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -8515,7 +8739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="R14">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -8527,7 +8751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -8539,7 +8763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -8551,7 +8775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -8563,7 +8787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -8575,7 +8799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -8587,7 +8811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -8599,7 +8823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -8611,7 +8835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -8623,7 +8847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -8635,7 +8859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -8647,7 +8871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -8659,7 +8883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -8671,7 +8895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -8683,7 +8907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -8695,7 +8919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -8707,7 +8931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -8719,79 +8943,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -8803,7 +9027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="C22:C23">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -8815,7 +9039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="D22:D23">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -8827,7 +9051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -8839,7 +9063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="F22:F23">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -8851,7 +9075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="G22:G23">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -8863,7 +9087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+  <conditionalFormatting sqref="H22:H23">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -8875,7 +9099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
+  <conditionalFormatting sqref="I22:I23">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -8887,7 +9111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23">
+  <conditionalFormatting sqref="J22:J23">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -8899,7 +9123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
+  <conditionalFormatting sqref="K22:K23">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -8911,7 +9135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23">
+  <conditionalFormatting sqref="L22:L23">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -8923,7 +9147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G23">
+  <conditionalFormatting sqref="M22:M23">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -8935,7 +9159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
+  <conditionalFormatting sqref="N22:N23">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -8947,7 +9171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I23">
+  <conditionalFormatting sqref="O22:O23">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -8959,7 +9183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J23">
+  <conditionalFormatting sqref="P22:P23">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -8971,7 +9195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K23">
+  <conditionalFormatting sqref="Q22:Q23">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -8983,7 +9207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L23">
+  <conditionalFormatting sqref="R22:R23">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -8995,79 +9219,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M23">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N23">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O23">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P23">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q23">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R23">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -9079,7 +9303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="N24">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -9091,7 +9315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="O24">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9103,7 +9327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="Q24">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9115,7 +9339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="R24">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -9127,7 +9351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9139,7 +9363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
+  <conditionalFormatting sqref="D27:D28">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9151,7 +9375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="E27:E28">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -9163,7 +9387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9175,7 +9399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9187,7 +9411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
+  <conditionalFormatting sqref="H27:H28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9199,7 +9423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
+  <conditionalFormatting sqref="I27:I28">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9211,7 +9435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="J27:J28">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9223,7 +9447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
+  <conditionalFormatting sqref="K27:K28">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9235,7 +9459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
+  <conditionalFormatting sqref="L27:L28">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9247,7 +9471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G28">
+  <conditionalFormatting sqref="M27:M28">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9259,7 +9483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H28">
+  <conditionalFormatting sqref="N27:N28">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9271,7 +9495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I28">
+  <conditionalFormatting sqref="O27:O28">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9283,7 +9507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J28">
+  <conditionalFormatting sqref="P27:P28">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9295,7 +9519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K28">
+  <conditionalFormatting sqref="Q27:Q28">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9307,7 +9531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L28">
+  <conditionalFormatting sqref="R27:R28">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9319,79 +9543,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:M28">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N28">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O28">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P28">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:Q28">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27:R28">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9403,7 +9627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="N29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9415,7 +9639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="S2:S4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9427,7 +9651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="S7:S9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9439,7 +9663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="S12:S14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9451,7 +9675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="S17:S19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9463,7 +9687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="S22:S24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9475,7 +9699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
+  <conditionalFormatting sqref="S27:S29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method output (no mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (no mundist).xlsx
@@ -163,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -251,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -305,6 +311,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6785,7 +6797,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C29"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6923,6 +6935,9 @@
       <c r="S2" s="16">
         <v>1.0000000000003581E-2</v>
       </c>
+      <c r="T2" s="20">
+        <v>155.77000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -6982,6 +6997,9 @@
       <c r="S3" s="16">
         <v>-14.14</v>
       </c>
+      <c r="T3" s="20">
+        <v>211.64</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -7040,6 +7058,9 @@
       </c>
       <c r="S4" s="16">
         <v>-12.670000000000011</v>
+      </c>
+      <c r="T4" s="20">
+        <v>186.94</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -7107,6 +7128,9 @@
       <c r="S7" s="16">
         <v>-104.2700000000001</v>
       </c>
+      <c r="T7" s="4">
+        <v>-27.77</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -7166,6 +7190,9 @@
       <c r="S8" s="16">
         <v>-161.3300000000001</v>
       </c>
+      <c r="T8" s="4">
+        <v>-80.730000000000018</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7224,6 +7251,9 @@
       </c>
       <c r="S9" s="16">
         <v>-144.47</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-46.459999999999972</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7287,8 +7317,11 @@
       <c r="R12" s="3">
         <v>267.76056498903802</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="21">
         <v>-137.96</v>
+      </c>
+      <c r="T12" s="20">
+        <v>-171.7399999999999</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -7346,8 +7379,11 @@
       <c r="R13" s="3">
         <v>215.08277428894999</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="21">
         <v>-89.789999999999992</v>
+      </c>
+      <c r="T13" s="20">
+        <v>-107.1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -7405,8 +7441,11 @@
       <c r="R14" s="3">
         <v>267.76056498903802</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="21">
         <v>-123.01</v>
+      </c>
+      <c r="T14" s="20">
+        <v>-126.81</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -7415,7 +7454,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -7473,8 +7512,11 @@
       <c r="S17" s="16">
         <v>-31.059999999999992</v>
       </c>
+      <c r="T17" s="4">
+        <v>-97.589999999999975</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -7532,8 +7574,11 @@
       <c r="S18" s="16">
         <v>-114.01</v>
       </c>
+      <c r="T18" s="4">
+        <v>-152.83999999999989</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -7591,14 +7636,17 @@
       <c r="S19" s="16">
         <v>-22.27999999999999</v>
       </c>
+      <c r="T19" s="4">
+        <v>-122.74</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -7656,8 +7704,11 @@
       <c r="S22" s="16">
         <v>-108.99000000000009</v>
       </c>
+      <c r="T22" s="20">
+        <v>-119.38</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -7715,8 +7766,11 @@
       <c r="S23" s="16">
         <v>-185.66</v>
       </c>
+      <c r="T23" s="20">
+        <v>-186.2299999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -7774,14 +7828,17 @@
       <c r="S24" s="16">
         <v>-133.52000000000001</v>
       </c>
+      <c r="T24" s="20">
+        <v>-126.28</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -7839,8 +7896,11 @@
       <c r="S27" s="16">
         <v>-96.879999999999967</v>
       </c>
+      <c r="T27" s="4">
+        <v>-116.2</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -7898,8 +7958,11 @@
       <c r="S28" s="16">
         <v>-222.17999999999989</v>
       </c>
+      <c r="T28" s="4">
+        <v>-162.32</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -7956,10 +8019,85 @@
       </c>
       <c r="S29" s="18">
         <v>-93.949999999999989</v>
+      </c>
+      <c r="T29" s="4">
+        <v>-137.75</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -7971,7 +8109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -7983,7 +8121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -7995,7 +8133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -8007,7 +8145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
@@ -8019,7 +8157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -8031,7 +8169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -8043,7 +8181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -8055,7 +8193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -8067,7 +8205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -8079,79 +8217,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="233">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="228">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
     <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
@@ -8163,7 +8301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="E7:E8">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
@@ -8175,7 +8313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="F7:F8">
     <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
@@ -8187,7 +8325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="G7:G8">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
@@ -8199,7 +8337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
+  <conditionalFormatting sqref="H7:H8">
     <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
@@ -8211,7 +8349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="I7:I8">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -8223,7 +8361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="J7:J8">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -8235,7 +8373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E8">
+  <conditionalFormatting sqref="K7:K8">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
@@ -8247,7 +8385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F8">
+  <conditionalFormatting sqref="L7:L8">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -8259,7 +8397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
+  <conditionalFormatting sqref="M7:M8">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
@@ -8271,7 +8409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
+  <conditionalFormatting sqref="N7:N8">
     <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
@@ -8283,7 +8421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I8">
+  <conditionalFormatting sqref="O7:O8">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
@@ -8295,7 +8433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J8">
+  <conditionalFormatting sqref="P7:P8">
     <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
@@ -8307,7 +8445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
+  <conditionalFormatting sqref="Q7:Q8">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
@@ -8319,7 +8457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L8">
+  <conditionalFormatting sqref="R7:R8">
     <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
@@ -8331,79 +8469,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N8">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P8">
-    <cfRule type="colorScale" priority="193">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q8">
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R8">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C13">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
@@ -8415,7 +8553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="F12:F13">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
@@ -8427,7 +8565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="G12:G13">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -8439,7 +8577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="H12:H13">
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
@@ -8451,7 +8589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
+  <conditionalFormatting sqref="I12:I13">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
@@ -8463,7 +8601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="J12:J13">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -8475,7 +8613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
+  <conditionalFormatting sqref="K12:K13">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -8487,7 +8625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F13">
+  <conditionalFormatting sqref="L12:L13">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -8499,7 +8637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
+  <conditionalFormatting sqref="M12:M13">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -8511,7 +8649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
+  <conditionalFormatting sqref="N12:N13">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -8523,7 +8661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="O12:O13">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -8535,7 +8673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J13">
+  <conditionalFormatting sqref="P12:P13">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -8547,7 +8685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13">
+  <conditionalFormatting sqref="Q12:Q13">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -8559,7 +8697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13">
+  <conditionalFormatting sqref="R12:R13">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -8571,79 +8709,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O13">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:P13">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q13">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R13">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -8655,7 +8793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="P14">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -8667,7 +8805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="R14">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -8679,7 +8817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -8691,7 +8829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -8703,7 +8841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -8715,7 +8853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -8727,7 +8865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -8739,7 +8877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -8751,7 +8889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -8763,7 +8901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -8775,7 +8913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -8787,7 +8925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -8799,7 +8937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -8811,7 +8949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -8823,7 +8961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -8835,7 +8973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -8847,7 +8985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -8859,7 +8997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -8871,79 +9009,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -8955,7 +9093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="C22:C23">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -8967,7 +9105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="D22:D23">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -8979,7 +9117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -8991,7 +9129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="F22:F23">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -9003,7 +9141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="G22:G23">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -9015,7 +9153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+  <conditionalFormatting sqref="H22:H23">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -9027,7 +9165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
+  <conditionalFormatting sqref="I22:I23">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -9039,7 +9177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23">
+  <conditionalFormatting sqref="J22:J23">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -9051,7 +9189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
+  <conditionalFormatting sqref="K22:K23">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -9063,7 +9201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23">
+  <conditionalFormatting sqref="L22:L23">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -9075,7 +9213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G23">
+  <conditionalFormatting sqref="M22:M23">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -9087,7 +9225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
+  <conditionalFormatting sqref="N22:N23">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -9099,7 +9237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I23">
+  <conditionalFormatting sqref="O22:O23">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -9111,7 +9249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J23">
+  <conditionalFormatting sqref="P22:P23">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -9123,7 +9261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K23">
+  <conditionalFormatting sqref="Q22:Q23">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -9135,7 +9273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L23">
+  <conditionalFormatting sqref="R22:R23">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -9147,79 +9285,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M23">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N23">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O23">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P23">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q23">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R23">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -9231,7 +9369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="N24">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -9243,7 +9381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="O24">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -9255,7 +9393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="Q24">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -9267,7 +9405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="R24">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -9279,7 +9417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -9291,7 +9429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
+  <conditionalFormatting sqref="D27:D28">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -9303,7 +9441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="E27:E28">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -9315,7 +9453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9327,7 +9465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9339,7 +9477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
+  <conditionalFormatting sqref="H27:H28">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -9351,7 +9489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
+  <conditionalFormatting sqref="I27:I28">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9363,7 +9501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="J27:J28">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9375,7 +9513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
+  <conditionalFormatting sqref="K27:K28">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -9387,7 +9525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
+  <conditionalFormatting sqref="L27:L28">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9399,7 +9537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G28">
+  <conditionalFormatting sqref="M27:M28">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9411,7 +9549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H28">
+  <conditionalFormatting sqref="N27:N28">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9423,7 +9561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I28">
+  <conditionalFormatting sqref="O27:O28">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9435,7 +9573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J28">
+  <conditionalFormatting sqref="P27:P28">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9447,7 +9585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K28">
+  <conditionalFormatting sqref="Q27:Q28">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9459,7 +9597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L28">
+  <conditionalFormatting sqref="R27:R28">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9471,79 +9609,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:M28">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N28">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O28">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P28">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:Q28">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27:R28">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9555,7 +9693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="N29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9567,7 +9705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="S2:S4">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9579,7 +9717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="S7:S9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9591,19 +9729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="S17:S19">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9615,7 +9741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="S22:S24">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9627,7 +9753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
+  <conditionalFormatting sqref="S27:S29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9639,19 +9765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:S9">
+  <conditionalFormatting sqref="T7:T9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9663,19 +9777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:S14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S19">
+  <conditionalFormatting sqref="T17:T19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9687,19 +9789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S24">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:S29">
+  <conditionalFormatting sqref="T27:T29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
